--- a/Bases_de_Dados_(2022-2023)/Bahrain Bahraini Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bahrain Bahraini Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -597,6 +597,9 @@
   <si>
     <t>['5', '12', '22', '45', '90+4']</t>
   </si>
+  <si>
+    <t>['11', '45+3', '48']</t>
+  </si>
 </sst>
 </file>
 
@@ -957,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK97"/>
+  <dimension ref="A1:BK99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1482,7 +1485,7 @@
         <v>2.13</v>
       </c>
       <c r="AT3">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1670,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT4">
         <v>1.25</v>
@@ -1864,7 +1867,7 @@
         <v>2</v>
       </c>
       <c r="AT5">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2243,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT7">
         <v>0.14</v>
@@ -3007,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT11">
         <v>2.13</v>
@@ -4538,7 +4541,7 @@
         <v>2.13</v>
       </c>
       <c r="AT19">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU19">
         <v>1.22</v>
@@ -4729,7 +4732,7 @@
         <v>1.13</v>
       </c>
       <c r="AT20">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU20">
         <v>1.39</v>
@@ -5108,7 +5111,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT22">
         <v>2.43</v>
@@ -6257,7 +6260,7 @@
         <v>1.11</v>
       </c>
       <c r="AT28">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU28">
         <v>0.95</v>
@@ -7785,7 +7788,7 @@
         <v>0.63</v>
       </c>
       <c r="AT36">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU36">
         <v>1.45</v>
@@ -8164,7 +8167,7 @@
         <v>1.67</v>
       </c>
       <c r="AS38">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT38">
         <v>2.13</v>
@@ -9310,7 +9313,7 @@
         <v>2.25</v>
       </c>
       <c r="AS44">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT44">
         <v>1.88</v>
@@ -9504,7 +9507,7 @@
         <v>0.63</v>
       </c>
       <c r="AT45">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU45">
         <v>1.35</v>
@@ -10077,7 +10080,7 @@
         <v>1.25</v>
       </c>
       <c r="AT48">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU48">
         <v>0.79</v>
@@ -10456,7 +10459,7 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT50">
         <v>1.78</v>
@@ -10647,7 +10650,7 @@
         <v>1.67</v>
       </c>
       <c r="AS51">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT51">
         <v>1.63</v>
@@ -11032,7 +11035,7 @@
         <v>0.44</v>
       </c>
       <c r="AT53">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU53">
         <v>0.87</v>
@@ -11223,7 +11226,7 @@
         <v>1.25</v>
       </c>
       <c r="AT54">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU54">
         <v>0.93</v>
@@ -11793,7 +11796,7 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT57">
         <v>1.25</v>
@@ -11984,7 +11987,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT58">
         <v>1.63</v>
@@ -12178,7 +12181,7 @@
         <v>2</v>
       </c>
       <c r="AT59">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU59">
         <v>1.31</v>
@@ -12939,7 +12942,7 @@
         <v>0.6</v>
       </c>
       <c r="AS63">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT63">
         <v>0.38</v>
@@ -13133,7 +13136,7 @@
         <v>1.71</v>
       </c>
       <c r="AT64">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU64">
         <v>1.21</v>
@@ -13321,7 +13324,7 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT65">
         <v>2</v>
@@ -14279,7 +14282,7 @@
         <v>1.71</v>
       </c>
       <c r="AT70">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU70">
         <v>1.32</v>
@@ -14467,7 +14470,7 @@
         <v>0.5</v>
       </c>
       <c r="AS71">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT71">
         <v>0.38</v>
@@ -15425,7 +15428,7 @@
         <v>1.13</v>
       </c>
       <c r="AT76">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU76">
         <v>1.63</v>
@@ -16762,7 +16765,7 @@
         <v>1.11</v>
       </c>
       <c r="AT83">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU83">
         <v>1.17</v>
@@ -18478,10 +18481,10 @@
         <v>1.57</v>
       </c>
       <c r="AS92">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT92">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU92">
         <v>1.4</v>
@@ -18860,7 +18863,7 @@
         <v>1.63</v>
       </c>
       <c r="AS94">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT94">
         <v>1.78</v>
@@ -19488,6 +19491,388 @@
       </c>
       <c r="BK97">
         <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:63">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>5258596</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="2">
+        <v>44998.52083333334</v>
+      </c>
+      <c r="F98">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>67</v>
+      </c>
+      <c r="H98" t="s">
+        <v>73</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>137</v>
+      </c>
+      <c r="P98" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q98">
+        <v>10</v>
+      </c>
+      <c r="R98">
+        <v>4</v>
+      </c>
+      <c r="S98">
+        <v>14</v>
+      </c>
+      <c r="T98">
+        <v>1.83</v>
+      </c>
+      <c r="U98">
+        <v>2.3</v>
+      </c>
+      <c r="V98">
+        <v>7</v>
+      </c>
+      <c r="W98">
+        <v>1.37</v>
+      </c>
+      <c r="X98">
+        <v>2.99</v>
+      </c>
+      <c r="Y98">
+        <v>2.65</v>
+      </c>
+      <c r="Z98">
+        <v>1.43</v>
+      </c>
+      <c r="AA98">
+        <v>7.25</v>
+      </c>
+      <c r="AB98">
+        <v>1.09</v>
+      </c>
+      <c r="AC98">
+        <v>1.36</v>
+      </c>
+      <c r="AD98">
+        <v>4.2</v>
+      </c>
+      <c r="AE98">
+        <v>8</v>
+      </c>
+      <c r="AF98">
+        <v>1.02</v>
+      </c>
+      <c r="AG98">
+        <v>14</v>
+      </c>
+      <c r="AH98">
+        <v>1.25</v>
+      </c>
+      <c r="AI98">
+        <v>3.6</v>
+      </c>
+      <c r="AJ98">
+        <v>1.85</v>
+      </c>
+      <c r="AK98">
+        <v>1.95</v>
+      </c>
+      <c r="AL98">
+        <v>2.1</v>
+      </c>
+      <c r="AM98">
+        <v>1.67</v>
+      </c>
+      <c r="AN98">
+        <v>1.01</v>
+      </c>
+      <c r="AO98">
+        <v>1.12</v>
+      </c>
+      <c r="AP98">
+        <v>2.95</v>
+      </c>
+      <c r="AQ98">
+        <v>1.38</v>
+      </c>
+      <c r="AR98">
+        <v>1.38</v>
+      </c>
+      <c r="AS98">
+        <v>1.33</v>
+      </c>
+      <c r="AT98">
+        <v>1.33</v>
+      </c>
+      <c r="AU98">
+        <v>1.34</v>
+      </c>
+      <c r="AV98">
+        <v>1.02</v>
+      </c>
+      <c r="AW98">
+        <v>2.36</v>
+      </c>
+      <c r="AX98">
+        <v>0</v>
+      </c>
+      <c r="AY98">
+        <v>0</v>
+      </c>
+      <c r="AZ98">
+        <v>0</v>
+      </c>
+      <c r="BA98">
+        <v>1.2</v>
+      </c>
+      <c r="BB98">
+        <v>1.37</v>
+      </c>
+      <c r="BC98">
+        <v>2.1</v>
+      </c>
+      <c r="BD98">
+        <v>2.1</v>
+      </c>
+      <c r="BE98">
+        <v>2.85</v>
+      </c>
+      <c r="BF98">
+        <v>7</v>
+      </c>
+      <c r="BG98">
+        <v>3</v>
+      </c>
+      <c r="BH98">
+        <v>7</v>
+      </c>
+      <c r="BI98">
+        <v>5</v>
+      </c>
+      <c r="BJ98">
+        <v>14</v>
+      </c>
+      <c r="BK98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:63">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>5258601</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="2">
+        <v>44998.52083333334</v>
+      </c>
+      <c r="F99">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>70</v>
+      </c>
+      <c r="H99" t="s">
+        <v>74</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>2</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>3</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99" t="s">
+        <v>78</v>
+      </c>
+      <c r="P99" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q99">
+        <v>4</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>4</v>
+      </c>
+      <c r="T99">
+        <v>3.4</v>
+      </c>
+      <c r="U99">
+        <v>1.91</v>
+      </c>
+      <c r="V99">
+        <v>3.4</v>
+      </c>
+      <c r="W99">
+        <v>1.53</v>
+      </c>
+      <c r="X99">
+        <v>2.38</v>
+      </c>
+      <c r="Y99">
+        <v>3.5</v>
+      </c>
+      <c r="Z99">
+        <v>1.29</v>
+      </c>
+      <c r="AA99">
+        <v>11</v>
+      </c>
+      <c r="AB99">
+        <v>1.05</v>
+      </c>
+      <c r="AC99">
+        <v>2.6</v>
+      </c>
+      <c r="AD99">
+        <v>3</v>
+      </c>
+      <c r="AE99">
+        <v>2.63</v>
+      </c>
+      <c r="AF99">
+        <v>1.09</v>
+      </c>
+      <c r="AG99">
+        <v>6</v>
+      </c>
+      <c r="AH99">
+        <v>1.44</v>
+      </c>
+      <c r="AI99">
+        <v>2.4</v>
+      </c>
+      <c r="AJ99">
+        <v>2.5</v>
+      </c>
+      <c r="AK99">
+        <v>1.5</v>
+      </c>
+      <c r="AL99">
+        <v>2.1</v>
+      </c>
+      <c r="AM99">
+        <v>1.67</v>
+      </c>
+      <c r="AN99">
+        <v>1.42</v>
+      </c>
+      <c r="AO99">
+        <v>1.37</v>
+      </c>
+      <c r="AP99">
+        <v>1.46</v>
+      </c>
+      <c r="AQ99">
+        <v>1.14</v>
+      </c>
+      <c r="AR99">
+        <v>1.5</v>
+      </c>
+      <c r="AS99">
+        <v>1</v>
+      </c>
+      <c r="AT99">
+        <v>1.67</v>
+      </c>
+      <c r="AU99">
+        <v>0.93</v>
+      </c>
+      <c r="AV99">
+        <v>1.1</v>
+      </c>
+      <c r="AW99">
+        <v>2.03</v>
+      </c>
+      <c r="AX99">
+        <v>0</v>
+      </c>
+      <c r="AY99">
+        <v>0</v>
+      </c>
+      <c r="AZ99">
+        <v>0</v>
+      </c>
+      <c r="BA99">
+        <v>0</v>
+      </c>
+      <c r="BB99">
+        <v>0</v>
+      </c>
+      <c r="BC99">
+        <v>0</v>
+      </c>
+      <c r="BD99">
+        <v>0</v>
+      </c>
+      <c r="BE99">
+        <v>0</v>
+      </c>
+      <c r="BF99">
+        <v>0</v>
+      </c>
+      <c r="BG99">
+        <v>4</v>
+      </c>
+      <c r="BH99">
+        <v>0</v>
+      </c>
+      <c r="BI99">
+        <v>0</v>
+      </c>
+      <c r="BJ99">
+        <v>0</v>
+      </c>
+      <c r="BK99">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bahrain Bahraini Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bahrain Bahraini Premier League_20222023.xlsx
@@ -385,16 +385,16 @@
     <t>['51', '90+4']</t>
   </si>
   <si>
+    <t>['3', '14']</t>
+  </si>
+  <si>
     <t>['58']</t>
   </si>
   <si>
-    <t>['3', '14']</t>
+    <t>['26', '81']</t>
   </si>
   <si>
     <t>['20', '90']</t>
-  </si>
-  <si>
-    <t>['26', '81']</t>
   </si>
   <si>
     <t>['49']</t>
@@ -430,10 +430,10 @@
     <t>['29']</t>
   </si>
   <si>
-    <t>['35', '50']</t>
+    <t>['59']</t>
   </si>
   <si>
-    <t>['59']</t>
+    <t>['35', '50']</t>
   </si>
   <si>
     <t>['75']</t>
@@ -589,10 +589,10 @@
     <t>['25', '37', '52', '65', '79']</t>
   </si>
   <si>
-    <t>['18']</t>
+    <t>['41', '44', '57']</t>
   </si>
   <si>
-    <t>['41', '44', '57']</t>
+    <t>['18']</t>
   </si>
   <si>
     <t>['12', '29']</t>
@@ -10760,7 +10760,7 @@
         <v>106</v>
       </c>
       <c r="P52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -14962,7 +14962,7 @@
         <v>121</v>
       </c>
       <c r="P74" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15302,7 +15302,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>5258576</v>
+        <v>5258574</v>
       </c>
       <c r="C76" t="s">
         <v>63</v>
@@ -15317,25 +15317,25 @@
         <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H76" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N76">
         <v>2</v>
@@ -15344,106 +15344,106 @@
         <v>123</v>
       </c>
       <c r="P76" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="Q76">
+        <v>2</v>
+      </c>
+      <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
         <v>4</v>
       </c>
-      <c r="R76">
-        <v>3</v>
-      </c>
-      <c r="S76">
-        <v>7</v>
-      </c>
       <c r="T76">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="U76">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V76">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="W76">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X76">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y76">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Z76">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AA76">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB76">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AC76">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="AD76">
         <v>3</v>
       </c>
       <c r="AE76">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="AF76">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG76">
-        <v>0</v>
+        <v>9.85</v>
       </c>
       <c r="AH76">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AI76">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AJ76">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="AK76">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="AL76">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="AM76">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AN76">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AO76">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AP76">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AQ76">
-        <v>1.33</v>
+        <v>0.86</v>
       </c>
       <c r="AR76">
-        <v>1.43</v>
+        <v>2.17</v>
       </c>
       <c r="AS76">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT76">
-        <v>1.33</v>
+        <v>1.78</v>
       </c>
       <c r="AU76">
-        <v>1.63</v>
+        <v>1.11</v>
       </c>
       <c r="AV76">
-        <v>1.03</v>
+        <v>1.31</v>
       </c>
       <c r="AW76">
-        <v>2.66</v>
+        <v>2.42</v>
       </c>
       <c r="AX76">
         <v>0</v>
@@ -15461,7 +15461,7 @@
         <v>0</v>
       </c>
       <c r="BC76">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="BD76">
         <v>0</v>
@@ -15470,22 +15470,22 @@
         <v>0</v>
       </c>
       <c r="BF76">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH76">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BI76">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BJ76">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BK76">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:63">
@@ -15493,7 +15493,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>5258574</v>
+        <v>5258576</v>
       </c>
       <c r="C77" t="s">
         <v>63</v>
@@ -15508,25 +15508,25 @@
         <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77">
         <v>2</v>
@@ -15535,106 +15535,106 @@
         <v>124</v>
       </c>
       <c r="P77" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="Q77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S77">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T77">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V77">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="W77">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X77">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y77">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Z77">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AA77">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB77">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AC77">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="AD77">
         <v>3</v>
       </c>
       <c r="AE77">
+        <v>3</v>
+      </c>
+      <c r="AF77">
+        <v>0</v>
+      </c>
+      <c r="AG77">
+        <v>0</v>
+      </c>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AJ77">
         <v>1.95</v>
       </c>
-      <c r="AF77">
+      <c r="AK77">
+        <v>1.85</v>
+      </c>
+      <c r="AL77">
+        <v>1.73</v>
+      </c>
+      <c r="AM77">
+        <v>2</v>
+      </c>
+      <c r="AN77">
+        <v>0</v>
+      </c>
+      <c r="AO77">
+        <v>0</v>
+      </c>
+      <c r="AP77">
+        <v>0</v>
+      </c>
+      <c r="AQ77">
+        <v>1.33</v>
+      </c>
+      <c r="AR77">
+        <v>1.43</v>
+      </c>
+      <c r="AS77">
+        <v>1.13</v>
+      </c>
+      <c r="AT77">
+        <v>1.33</v>
+      </c>
+      <c r="AU77">
+        <v>1.63</v>
+      </c>
+      <c r="AV77">
         <v>1.03</v>
       </c>
-      <c r="AG77">
-        <v>9.85</v>
-      </c>
-      <c r="AH77">
-        <v>1.31</v>
-      </c>
-      <c r="AI77">
-        <v>3.05</v>
-      </c>
-      <c r="AJ77">
-        <v>2.25</v>
-      </c>
-      <c r="AK77">
-        <v>1.62</v>
-      </c>
-      <c r="AL77">
-        <v>1.91</v>
-      </c>
-      <c r="AM77">
-        <v>1.8</v>
-      </c>
-      <c r="AN77">
-        <v>2.1</v>
-      </c>
-      <c r="AO77">
-        <v>1.27</v>
-      </c>
-      <c r="AP77">
-        <v>1.17</v>
-      </c>
-      <c r="AQ77">
-        <v>0.86</v>
-      </c>
-      <c r="AR77">
-        <v>2.17</v>
-      </c>
-      <c r="AS77">
-        <v>1.11</v>
-      </c>
-      <c r="AT77">
-        <v>1.78</v>
-      </c>
-      <c r="AU77">
-        <v>1.11</v>
-      </c>
-      <c r="AV77">
-        <v>1.31</v>
-      </c>
       <c r="AW77">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="AX77">
         <v>0</v>
@@ -15652,7 +15652,7 @@
         <v>0</v>
       </c>
       <c r="BC77">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BD77">
         <v>0</v>
@@ -15661,22 +15661,22 @@
         <v>0</v>
       </c>
       <c r="BF77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BG77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH77">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BI77">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BJ77">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BK77">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:63">
@@ -15684,7 +15684,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>5258573</v>
+        <v>5258572</v>
       </c>
       <c r="C78" t="s">
         <v>63</v>
@@ -15699,10 +15699,10 @@
         <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H78" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -15717,115 +15717,115 @@
         <v>2</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O78" t="s">
         <v>125</v>
       </c>
       <c r="P78" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="Q78">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R78">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S78">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T78">
-        <v>6</v>
+        <v>3.24</v>
       </c>
       <c r="U78">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="V78">
-        <v>2.2</v>
+        <v>3.44</v>
       </c>
       <c r="W78">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="X78">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="Y78">
-        <v>3.02</v>
+        <v>3.2</v>
       </c>
       <c r="Z78">
         <v>1.3</v>
       </c>
       <c r="AA78">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="AB78">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AC78">
-        <v>5.5</v>
+        <v>2.65</v>
       </c>
       <c r="AD78">
-        <v>3.5</v>
+        <v>2.99</v>
       </c>
       <c r="AE78">
-        <v>1.57</v>
+        <v>2.84</v>
       </c>
       <c r="AF78">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AG78">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AH78">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AI78">
-        <v>3.18</v>
+        <v>2.7</v>
       </c>
       <c r="AJ78">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="AK78">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AL78">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="AM78">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AN78">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AO78">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AP78">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AQ78">
-        <v>0.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR78">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="AS78">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="AT78">
-        <v>1.88</v>
+        <v>2.13</v>
       </c>
       <c r="AU78">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="AV78">
-        <v>1.64</v>
+        <v>1.35</v>
       </c>
       <c r="AW78">
-        <v>2.54</v>
+        <v>3.05</v>
       </c>
       <c r="AX78">
         <v>0</v>
@@ -15843,7 +15843,7 @@
         <v>0</v>
       </c>
       <c r="BC78">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="BD78">
         <v>0</v>
@@ -15852,22 +15852,22 @@
         <v>0</v>
       </c>
       <c r="BF78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG78">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH78">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BI78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ78">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BK78">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:63">
@@ -15875,7 +15875,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>5258572</v>
+        <v>5258573</v>
       </c>
       <c r="C79" t="s">
         <v>63</v>
@@ -15890,10 +15890,10 @@
         <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -15908,115 +15908,115 @@
         <v>2</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O79" t="s">
         <v>126</v>
       </c>
       <c r="P79" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="Q79">
+        <v>2</v>
+      </c>
+      <c r="R79">
+        <v>8</v>
+      </c>
+      <c r="S79">
+        <v>10</v>
+      </c>
+      <c r="T79">
         <v>6</v>
       </c>
-      <c r="R79">
-        <v>6</v>
-      </c>
-      <c r="S79">
-        <v>12</v>
-      </c>
-      <c r="T79">
-        <v>3.24</v>
-      </c>
       <c r="U79">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="V79">
-        <v>3.44</v>
+        <v>2.2</v>
       </c>
       <c r="W79">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="X79">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="Y79">
-        <v>3.2</v>
+        <v>3.02</v>
       </c>
       <c r="Z79">
         <v>1.3</v>
       </c>
       <c r="AA79">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="AB79">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AC79">
-        <v>2.65</v>
+        <v>5.5</v>
       </c>
       <c r="AD79">
-        <v>2.99</v>
+        <v>3.5</v>
       </c>
       <c r="AE79">
-        <v>2.84</v>
+        <v>1.57</v>
       </c>
       <c r="AF79">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AG79">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AH79">
+        <v>1.31</v>
+      </c>
+      <c r="AI79">
+        <v>3.18</v>
+      </c>
+      <c r="AJ79">
+        <v>2.2</v>
+      </c>
+      <c r="AK79">
+        <v>1.65</v>
+      </c>
+      <c r="AL79">
+        <v>2.25</v>
+      </c>
+      <c r="AM79">
+        <v>1.57</v>
+      </c>
+      <c r="AN79">
+        <v>2.6</v>
+      </c>
+      <c r="AO79">
+        <v>1.2</v>
+      </c>
+      <c r="AP79">
+        <v>1.11</v>
+      </c>
+      <c r="AQ79">
+        <v>0.6</v>
+      </c>
+      <c r="AR79">
+        <v>2.4</v>
+      </c>
+      <c r="AS79">
         <v>1.44</v>
       </c>
-      <c r="AI79">
-        <v>2.7</v>
-      </c>
-      <c r="AJ79">
-        <v>2.37</v>
-      </c>
-      <c r="AK79">
-        <v>1.55</v>
-      </c>
-      <c r="AL79">
-        <v>1.93</v>
-      </c>
-      <c r="AM79">
-        <v>1.83</v>
-      </c>
-      <c r="AN79">
-        <v>0</v>
-      </c>
-      <c r="AO79">
-        <v>0</v>
-      </c>
-      <c r="AP79">
-        <v>0</v>
-      </c>
-      <c r="AQ79">
-        <v>1.83</v>
-      </c>
-      <c r="AR79">
-        <v>2.33</v>
-      </c>
-      <c r="AS79">
-        <v>2</v>
-      </c>
       <c r="AT79">
-        <v>2.13</v>
+        <v>1.88</v>
       </c>
       <c r="AU79">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="AV79">
-        <v>1.35</v>
+        <v>1.64</v>
       </c>
       <c r="AW79">
-        <v>3.05</v>
+        <v>2.54</v>
       </c>
       <c r="AX79">
         <v>0</v>
@@ -16034,7 +16034,7 @@
         <v>0</v>
       </c>
       <c r="BC79">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="BD79">
         <v>0</v>
@@ -16043,22 +16043,22 @@
         <v>0</v>
       </c>
       <c r="BF79">
+        <v>4</v>
+      </c>
+      <c r="BG79">
         <v>3</v>
       </c>
-      <c r="BG79">
-        <v>6</v>
-      </c>
       <c r="BH79">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BI79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ79">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BK79">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:63">
@@ -18740,7 +18740,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>5258591</v>
+        <v>5258595</v>
       </c>
       <c r="C94" t="s">
         <v>63</v>
@@ -18755,31 +18755,31 @@
         <v>16</v>
       </c>
       <c r="G94" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H94" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O94" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="P94" t="s">
         <v>191</v>
@@ -18788,142 +18788,142 @@
         <v>6</v>
       </c>
       <c r="R94">
+        <v>3</v>
+      </c>
+      <c r="S94">
+        <v>9</v>
+      </c>
+      <c r="T94">
+        <v>4.5</v>
+      </c>
+      <c r="U94">
+        <v>1.95</v>
+      </c>
+      <c r="V94">
+        <v>2.63</v>
+      </c>
+      <c r="W94">
+        <v>1.51</v>
+      </c>
+      <c r="X94">
+        <v>2.31</v>
+      </c>
+      <c r="Y94">
+        <v>3.25</v>
+      </c>
+      <c r="Z94">
+        <v>1.25</v>
+      </c>
+      <c r="AA94">
+        <v>10</v>
+      </c>
+      <c r="AB94">
+        <v>1.01</v>
+      </c>
+      <c r="AC94">
+        <v>3.75</v>
+      </c>
+      <c r="AD94">
+        <v>3.2</v>
+      </c>
+      <c r="AE94">
+        <v>1.91</v>
+      </c>
+      <c r="AF94">
+        <v>1.06</v>
+      </c>
+      <c r="AG94">
+        <v>6.75</v>
+      </c>
+      <c r="AH94">
+        <v>1.44</v>
+      </c>
+      <c r="AI94">
+        <v>2.51</v>
+      </c>
+      <c r="AJ94">
+        <v>2.35</v>
+      </c>
+      <c r="AK94">
+        <v>1.57</v>
+      </c>
+      <c r="AL94">
+        <v>2.1</v>
+      </c>
+      <c r="AM94">
+        <v>1.67</v>
+      </c>
+      <c r="AN94">
+        <v>1.53</v>
+      </c>
+      <c r="AO94">
+        <v>1.34</v>
+      </c>
+      <c r="AP94">
+        <v>1.36</v>
+      </c>
+      <c r="AQ94">
+        <v>1.43</v>
+      </c>
+      <c r="AR94">
+        <v>1</v>
+      </c>
+      <c r="AS94">
+        <v>1.25</v>
+      </c>
+      <c r="AT94">
+        <v>1.25</v>
+      </c>
+      <c r="AU94">
+        <v>1.08</v>
+      </c>
+      <c r="AV94">
+        <v>1.24</v>
+      </c>
+      <c r="AW94">
+        <v>2.32</v>
+      </c>
+      <c r="AX94">
+        <v>0</v>
+      </c>
+      <c r="AY94">
+        <v>0</v>
+      </c>
+      <c r="AZ94">
+        <v>0</v>
+      </c>
+      <c r="BA94">
+        <v>0</v>
+      </c>
+      <c r="BB94">
+        <v>0</v>
+      </c>
+      <c r="BC94">
+        <v>2.2</v>
+      </c>
+      <c r="BD94">
+        <v>0</v>
+      </c>
+      <c r="BE94">
+        <v>0</v>
+      </c>
+      <c r="BF94">
         <v>5</v>
       </c>
-      <c r="S94">
-        <v>11</v>
-      </c>
-      <c r="T94">
-        <v>5.5</v>
-      </c>
-      <c r="U94">
-        <v>2.05</v>
-      </c>
-      <c r="V94">
-        <v>2.3</v>
-      </c>
-      <c r="W94">
-        <v>1.45</v>
-      </c>
-      <c r="X94">
-        <v>2.5</v>
-      </c>
-      <c r="Y94">
-        <v>3.15</v>
-      </c>
-      <c r="Z94">
-        <v>1.3</v>
-      </c>
-      <c r="AA94">
-        <v>9.25</v>
-      </c>
-      <c r="AB94">
-        <v>1.05</v>
-      </c>
-      <c r="AC94">
+      <c r="BG94">
         <v>5</v>
       </c>
-      <c r="AD94">
-        <v>3.4</v>
-      </c>
-      <c r="AE94">
-        <v>1.65</v>
-      </c>
-      <c r="AF94">
-        <v>1.05</v>
-      </c>
-      <c r="AG94">
+      <c r="BH94">
+        <v>10</v>
+      </c>
+      <c r="BI94">
+        <v>4</v>
+      </c>
+      <c r="BJ94">
+        <v>15</v>
+      </c>
+      <c r="BK94">
         <v>9</v>
-      </c>
-      <c r="AH94">
-        <v>1.36</v>
-      </c>
-      <c r="AI94">
-        <v>2.85</v>
-      </c>
-      <c r="AJ94">
-        <v>2.2</v>
-      </c>
-      <c r="AK94">
-        <v>1.65</v>
-      </c>
-      <c r="AL94">
-        <v>2.2</v>
-      </c>
-      <c r="AM94">
-        <v>1.62</v>
-      </c>
-      <c r="AN94">
-        <v>2.21</v>
-      </c>
-      <c r="AO94">
-        <v>1.25</v>
-      </c>
-      <c r="AP94">
-        <v>1.12</v>
-      </c>
-      <c r="AQ94">
-        <v>1.33</v>
-      </c>
-      <c r="AR94">
-        <v>1.63</v>
-      </c>
-      <c r="AS94">
-        <v>1</v>
-      </c>
-      <c r="AT94">
-        <v>1.78</v>
-      </c>
-      <c r="AU94">
-        <v>0.99</v>
-      </c>
-      <c r="AV94">
-        <v>1.42</v>
-      </c>
-      <c r="AW94">
-        <v>2.41</v>
-      </c>
-      <c r="AX94">
-        <v>0</v>
-      </c>
-      <c r="AY94">
-        <v>0</v>
-      </c>
-      <c r="AZ94">
-        <v>0</v>
-      </c>
-      <c r="BA94">
-        <v>0</v>
-      </c>
-      <c r="BB94">
-        <v>0</v>
-      </c>
-      <c r="BC94">
-        <v>0</v>
-      </c>
-      <c r="BD94">
-        <v>0</v>
-      </c>
-      <c r="BE94">
-        <v>0</v>
-      </c>
-      <c r="BF94">
-        <v>0</v>
-      </c>
-      <c r="BG94">
-        <v>2</v>
-      </c>
-      <c r="BH94">
-        <v>0</v>
-      </c>
-      <c r="BI94">
-        <v>0</v>
-      </c>
-      <c r="BJ94">
-        <v>0</v>
-      </c>
-      <c r="BK94">
-        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:63">
@@ -18931,7 +18931,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>5258595</v>
+        <v>5258591</v>
       </c>
       <c r="C95" t="s">
         <v>63</v>
@@ -18946,31 +18946,31 @@
         <v>16</v>
       </c>
       <c r="G95" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H95" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O95" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="P95" t="s">
         <v>192</v>
@@ -18979,100 +18979,100 @@
         <v>6</v>
       </c>
       <c r="R95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S95">
+        <v>11</v>
+      </c>
+      <c r="T95">
+        <v>5.5</v>
+      </c>
+      <c r="U95">
+        <v>2.05</v>
+      </c>
+      <c r="V95">
+        <v>2.3</v>
+      </c>
+      <c r="W95">
+        <v>1.45</v>
+      </c>
+      <c r="X95">
+        <v>2.5</v>
+      </c>
+      <c r="Y95">
+        <v>3.15</v>
+      </c>
+      <c r="Z95">
+        <v>1.3</v>
+      </c>
+      <c r="AA95">
+        <v>9.25</v>
+      </c>
+      <c r="AB95">
+        <v>1.05</v>
+      </c>
+      <c r="AC95">
+        <v>5</v>
+      </c>
+      <c r="AD95">
+        <v>3.4</v>
+      </c>
+      <c r="AE95">
+        <v>1.65</v>
+      </c>
+      <c r="AF95">
+        <v>1.05</v>
+      </c>
+      <c r="AG95">
         <v>9</v>
       </c>
-      <c r="T95">
-        <v>4.5</v>
-      </c>
-      <c r="U95">
-        <v>1.95</v>
-      </c>
-      <c r="V95">
-        <v>2.63</v>
-      </c>
-      <c r="W95">
-        <v>1.51</v>
-      </c>
-      <c r="X95">
-        <v>2.31</v>
-      </c>
-      <c r="Y95">
-        <v>3.25</v>
-      </c>
-      <c r="Z95">
+      <c r="AH95">
+        <v>1.36</v>
+      </c>
+      <c r="AI95">
+        <v>2.85</v>
+      </c>
+      <c r="AJ95">
+        <v>2.2</v>
+      </c>
+      <c r="AK95">
+        <v>1.65</v>
+      </c>
+      <c r="AL95">
+        <v>2.2</v>
+      </c>
+      <c r="AM95">
+        <v>1.62</v>
+      </c>
+      <c r="AN95">
+        <v>2.21</v>
+      </c>
+      <c r="AO95">
         <v>1.25</v>
       </c>
-      <c r="AA95">
-        <v>10</v>
-      </c>
-      <c r="AB95">
-        <v>1.01</v>
-      </c>
-      <c r="AC95">
-        <v>3.75</v>
-      </c>
-      <c r="AD95">
-        <v>3.2</v>
-      </c>
-      <c r="AE95">
-        <v>1.91</v>
-      </c>
-      <c r="AF95">
-        <v>1.06</v>
-      </c>
-      <c r="AG95">
-        <v>6.75</v>
-      </c>
-      <c r="AH95">
-        <v>1.44</v>
-      </c>
-      <c r="AI95">
-        <v>2.51</v>
-      </c>
-      <c r="AJ95">
-        <v>2.35</v>
-      </c>
-      <c r="AK95">
-        <v>1.57</v>
-      </c>
-      <c r="AL95">
-        <v>2.1</v>
-      </c>
-      <c r="AM95">
-        <v>1.67</v>
-      </c>
-      <c r="AN95">
-        <v>1.53</v>
-      </c>
-      <c r="AO95">
-        <v>1.34</v>
-      </c>
       <c r="AP95">
-        <v>1.36</v>
+        <v>1.12</v>
       </c>
       <c r="AQ95">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR95">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AS95">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT95">
-        <v>1.25</v>
+        <v>1.78</v>
       </c>
       <c r="AU95">
-        <v>1.08</v>
+        <v>0.99</v>
       </c>
       <c r="AV95">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="AW95">
-        <v>2.32</v>
+        <v>2.41</v>
       </c>
       <c r="AX95">
         <v>0</v>
@@ -19090,7 +19090,7 @@
         <v>0</v>
       </c>
       <c r="BC95">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="BD95">
         <v>0</v>
@@ -19099,22 +19099,22 @@
         <v>0</v>
       </c>
       <c r="BF95">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BG95">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BH95">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BI95">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BJ95">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BK95">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:63">
@@ -19504,7 +19504,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>5258596</v>
+        <v>5258601</v>
       </c>
       <c r="C98" t="s">
         <v>63</v>
@@ -19519,97 +19519,97 @@
         <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H98" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K98">
         <v>2</v>
       </c>
       <c r="L98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O98" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="P98" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="Q98">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
         <v>4</v>
       </c>
-      <c r="S98">
-        <v>14</v>
-      </c>
       <c r="T98">
-        <v>1.83</v>
+        <v>3.4</v>
       </c>
       <c r="U98">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="V98">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="W98">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="X98">
-        <v>2.99</v>
+        <v>2.38</v>
       </c>
       <c r="Y98">
-        <v>2.65</v>
+        <v>3.5</v>
       </c>
       <c r="Z98">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AA98">
-        <v>7.25</v>
+        <v>11</v>
       </c>
       <c r="AB98">
+        <v>1.05</v>
+      </c>
+      <c r="AC98">
+        <v>2.6</v>
+      </c>
+      <c r="AD98">
+        <v>3</v>
+      </c>
+      <c r="AE98">
+        <v>2.63</v>
+      </c>
+      <c r="AF98">
         <v>1.09</v>
       </c>
-      <c r="AC98">
-        <v>1.36</v>
-      </c>
-      <c r="AD98">
-        <v>4.2</v>
-      </c>
-      <c r="AE98">
-        <v>8</v>
-      </c>
-      <c r="AF98">
-        <v>1.02</v>
-      </c>
       <c r="AG98">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AH98">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AI98">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="AJ98">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="AK98">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AL98">
         <v>2.1</v>
@@ -19618,34 +19618,34 @@
         <v>1.67</v>
       </c>
       <c r="AN98">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="AO98">
-        <v>1.12</v>
+        <v>1.37</v>
       </c>
       <c r="AP98">
-        <v>2.95</v>
+        <v>1.46</v>
       </c>
       <c r="AQ98">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="AR98">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AS98">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT98">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AU98">
-        <v>1.34</v>
+        <v>0.93</v>
       </c>
       <c r="AV98">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="AW98">
-        <v>2.36</v>
+        <v>2.03</v>
       </c>
       <c r="AX98">
         <v>0</v>
@@ -19657,37 +19657,37 @@
         <v>0</v>
       </c>
       <c r="BA98">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="BB98">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="BC98">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BD98">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BE98">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="BF98">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BG98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH98">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BI98">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BJ98">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BK98">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:63">
@@ -19695,7 +19695,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>5258601</v>
+        <v>5258596</v>
       </c>
       <c r="C99" t="s">
         <v>63</v>
@@ -19710,97 +19710,97 @@
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H99" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K99">
         <v>2</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O99" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="P99" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="Q99">
+        <v>10</v>
+      </c>
+      <c r="R99">
         <v>4</v>
       </c>
-      <c r="R99">
-        <v>0</v>
-      </c>
       <c r="S99">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="T99">
-        <v>3.4</v>
+        <v>1.83</v>
       </c>
       <c r="U99">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="V99">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="W99">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="X99">
-        <v>2.38</v>
+        <v>2.99</v>
       </c>
       <c r="Y99">
-        <v>3.5</v>
+        <v>2.65</v>
       </c>
       <c r="Z99">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AA99">
-        <v>11</v>
+        <v>7.25</v>
       </c>
       <c r="AB99">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="AC99">
-        <v>2.6</v>
+        <v>1.36</v>
       </c>
       <c r="AD99">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="AE99">
-        <v>2.63</v>
+        <v>8</v>
       </c>
       <c r="AF99">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="AG99">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AH99">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AI99">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="AJ99">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="AK99">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AL99">
         <v>2.1</v>
@@ -19809,76 +19809,76 @@
         <v>1.67</v>
       </c>
       <c r="AN99">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="AO99">
+        <v>1.12</v>
+      </c>
+      <c r="AP99">
+        <v>2.95</v>
+      </c>
+      <c r="AQ99">
+        <v>1.38</v>
+      </c>
+      <c r="AR99">
+        <v>1.38</v>
+      </c>
+      <c r="AS99">
+        <v>1.33</v>
+      </c>
+      <c r="AT99">
+        <v>1.33</v>
+      </c>
+      <c r="AU99">
+        <v>1.34</v>
+      </c>
+      <c r="AV99">
+        <v>1.02</v>
+      </c>
+      <c r="AW99">
+        <v>2.36</v>
+      </c>
+      <c r="AX99">
+        <v>0</v>
+      </c>
+      <c r="AY99">
+        <v>0</v>
+      </c>
+      <c r="AZ99">
+        <v>0</v>
+      </c>
+      <c r="BA99">
+        <v>1.2</v>
+      </c>
+      <c r="BB99">
         <v>1.37</v>
       </c>
-      <c r="AP99">
-        <v>1.46</v>
-      </c>
-      <c r="AQ99">
-        <v>1.14</v>
-      </c>
-      <c r="AR99">
-        <v>1.5</v>
-      </c>
-      <c r="AS99">
-        <v>1</v>
-      </c>
-      <c r="AT99">
-        <v>1.67</v>
-      </c>
-      <c r="AU99">
-        <v>0.93</v>
-      </c>
-      <c r="AV99">
-        <v>1.1</v>
-      </c>
-      <c r="AW99">
-        <v>2.03</v>
-      </c>
-      <c r="AX99">
-        <v>0</v>
-      </c>
-      <c r="AY99">
-        <v>0</v>
-      </c>
-      <c r="AZ99">
-        <v>0</v>
-      </c>
-      <c r="BA99">
-        <v>0</v>
-      </c>
-      <c r="BB99">
-        <v>0</v>
-      </c>
       <c r="BC99">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BD99">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BE99">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="BF99">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BG99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH99">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BI99">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BJ99">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BK99">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:63">
@@ -19886,7 +19886,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>5258598</v>
+        <v>5258599</v>
       </c>
       <c r="C100" t="s">
         <v>63</v>
@@ -19901,175 +19901,175 @@
         <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H100" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N100">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O100" t="s">
         <v>138</v>
       </c>
       <c r="P100" t="s">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100">
+        <v>5</v>
+      </c>
+      <c r="S100">
         <v>6</v>
       </c>
-      <c r="R100">
-        <v>4</v>
-      </c>
-      <c r="S100">
-        <v>10</v>
-      </c>
       <c r="T100">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="U100">
         <v>2</v>
       </c>
       <c r="V100">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="W100">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="X100">
-        <v>2.61</v>
+        <v>2.42</v>
       </c>
       <c r="Y100">
-        <v>3.21</v>
+        <v>3.54</v>
       </c>
       <c r="Z100">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="AA100">
-        <v>7.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AB100">
+        <v>1.05</v>
+      </c>
+      <c r="AC100">
+        <v>2.25</v>
+      </c>
+      <c r="AD100">
+        <v>3</v>
+      </c>
+      <c r="AE100">
+        <v>3</v>
+      </c>
+      <c r="AF100">
         <v>1.06</v>
       </c>
-      <c r="AC100">
-        <v>1.7</v>
-      </c>
-      <c r="AD100">
-        <v>3.4</v>
-      </c>
-      <c r="AE100">
-        <v>4.33</v>
-      </c>
-      <c r="AF100">
-        <v>1.04</v>
-      </c>
       <c r="AG100">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="AH100">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="AI100">
-        <v>2.79</v>
+        <v>2.55</v>
       </c>
       <c r="AJ100">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AK100">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AL100">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="AM100">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AN100">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AO100">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="AP100">
-        <v>2.29</v>
+        <v>1.83</v>
       </c>
       <c r="AQ100">
-        <v>2.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR100">
-        <v>2.43</v>
+        <v>1.63</v>
       </c>
       <c r="AS100">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="AT100">
+        <v>1.44</v>
+      </c>
+      <c r="AU100">
+        <v>0.91</v>
+      </c>
+      <c r="AV100">
+        <v>1.14</v>
+      </c>
+      <c r="AW100">
+        <v>2.05</v>
+      </c>
+      <c r="AX100">
+        <v>1.59</v>
+      </c>
+      <c r="AY100">
+        <v>7.5</v>
+      </c>
+      <c r="AZ100">
+        <v>2.81</v>
+      </c>
+      <c r="BA100">
+        <v>0</v>
+      </c>
+      <c r="BB100">
+        <v>1.43</v>
+      </c>
+      <c r="BC100">
         <v>2.25</v>
       </c>
-      <c r="AU100">
-        <v>1.77</v>
-      </c>
-      <c r="AV100">
-        <v>1.3</v>
-      </c>
-      <c r="AW100">
-        <v>3.07</v>
-      </c>
-      <c r="AX100">
-        <v>1.38</v>
-      </c>
-      <c r="AY100">
-        <v>10.25</v>
-      </c>
-      <c r="AZ100">
-        <v>3.4</v>
-      </c>
-      <c r="BA100">
-        <v>0</v>
-      </c>
-      <c r="BB100">
-        <v>1.63</v>
-      </c>
-      <c r="BC100">
-        <v>2.01</v>
-      </c>
       <c r="BD100">
-        <v>2.64</v>
+        <v>2.25</v>
       </c>
       <c r="BE100">
         <v>0</v>
       </c>
       <c r="BF100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG100">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BI100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ100">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BK100">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:63">
@@ -20077,7 +20077,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>5258599</v>
+        <v>5258598</v>
       </c>
       <c r="C101" t="s">
         <v>63</v>
@@ -20092,175 +20092,175 @@
         <v>17</v>
       </c>
       <c r="G101" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H101" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O101" t="s">
         <v>139</v>
       </c>
       <c r="P101" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="Q101">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R101">
+        <v>4</v>
+      </c>
+      <c r="S101">
+        <v>10</v>
+      </c>
+      <c r="T101">
+        <v>2.38</v>
+      </c>
+      <c r="U101">
+        <v>2</v>
+      </c>
+      <c r="V101">
+        <v>5.5</v>
+      </c>
+      <c r="W101">
+        <v>1.47</v>
+      </c>
+      <c r="X101">
+        <v>2.61</v>
+      </c>
+      <c r="Y101">
+        <v>3.21</v>
+      </c>
+      <c r="Z101">
+        <v>1.32</v>
+      </c>
+      <c r="AA101">
+        <v>7.3</v>
+      </c>
+      <c r="AB101">
+        <v>1.06</v>
+      </c>
+      <c r="AC101">
+        <v>1.7</v>
+      </c>
+      <c r="AD101">
+        <v>3.4</v>
+      </c>
+      <c r="AE101">
+        <v>4.33</v>
+      </c>
+      <c r="AF101">
+        <v>1.04</v>
+      </c>
+      <c r="AG101">
+        <v>7.8</v>
+      </c>
+      <c r="AH101">
+        <v>1.36</v>
+      </c>
+      <c r="AI101">
+        <v>2.79</v>
+      </c>
+      <c r="AJ101">
+        <v>2.3</v>
+      </c>
+      <c r="AK101">
+        <v>1.6</v>
+      </c>
+      <c r="AL101">
+        <v>2.2</v>
+      </c>
+      <c r="AM101">
+        <v>1.62</v>
+      </c>
+      <c r="AN101">
+        <v>1.11</v>
+      </c>
+      <c r="AO101">
+        <v>1.24</v>
+      </c>
+      <c r="AP101">
+        <v>2.29</v>
+      </c>
+      <c r="AQ101">
+        <v>2.13</v>
+      </c>
+      <c r="AR101">
+        <v>2.43</v>
+      </c>
+      <c r="AS101">
+        <v>2</v>
+      </c>
+      <c r="AT101">
+        <v>2.25</v>
+      </c>
+      <c r="AU101">
+        <v>1.77</v>
+      </c>
+      <c r="AV101">
+        <v>1.3</v>
+      </c>
+      <c r="AW101">
+        <v>3.07</v>
+      </c>
+      <c r="AX101">
+        <v>1.38</v>
+      </c>
+      <c r="AY101">
+        <v>10.25</v>
+      </c>
+      <c r="AZ101">
+        <v>3.4</v>
+      </c>
+      <c r="BA101">
+        <v>0</v>
+      </c>
+      <c r="BB101">
+        <v>1.63</v>
+      </c>
+      <c r="BC101">
+        <v>2.01</v>
+      </c>
+      <c r="BD101">
+        <v>2.64</v>
+      </c>
+      <c r="BE101">
+        <v>0</v>
+      </c>
+      <c r="BF101">
+        <v>3</v>
+      </c>
+      <c r="BG101">
         <v>5</v>
       </c>
-      <c r="S101">
+      <c r="BH101">
+        <v>3</v>
+      </c>
+      <c r="BI101">
+        <v>1</v>
+      </c>
+      <c r="BJ101">
         <v>6</v>
       </c>
-      <c r="T101">
-        <v>3</v>
-      </c>
-      <c r="U101">
-        <v>2</v>
-      </c>
-      <c r="V101">
-        <v>3.6</v>
-      </c>
-      <c r="W101">
-        <v>1.55</v>
-      </c>
-      <c r="X101">
-        <v>2.42</v>
-      </c>
-      <c r="Y101">
-        <v>3.54</v>
-      </c>
-      <c r="Z101">
-        <v>1.27</v>
-      </c>
-      <c r="AA101">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AB101">
-        <v>1.05</v>
-      </c>
-      <c r="AC101">
-        <v>2.25</v>
-      </c>
-      <c r="AD101">
-        <v>3</v>
-      </c>
-      <c r="AE101">
-        <v>3</v>
-      </c>
-      <c r="AF101">
-        <v>1.06</v>
-      </c>
-      <c r="AG101">
-        <v>6.7</v>
-      </c>
-      <c r="AH101">
-        <v>1.46</v>
-      </c>
-      <c r="AI101">
-        <v>2.55</v>
-      </c>
-      <c r="AJ101">
-        <v>2.2</v>
-      </c>
-      <c r="AK101">
-        <v>1.65</v>
-      </c>
-      <c r="AL101">
-        <v>1.91</v>
-      </c>
-      <c r="AM101">
-        <v>1.8</v>
-      </c>
-      <c r="AN101">
-        <v>1.2</v>
-      </c>
-      <c r="AO101">
-        <v>1.31</v>
-      </c>
-      <c r="AP101">
-        <v>1.83</v>
-      </c>
-      <c r="AQ101">
-        <v>1.25</v>
-      </c>
-      <c r="AR101">
-        <v>1.63</v>
-      </c>
-      <c r="AS101">
-        <v>1.44</v>
-      </c>
-      <c r="AT101">
-        <v>1.44</v>
-      </c>
-      <c r="AU101">
-        <v>0.91</v>
-      </c>
-      <c r="AV101">
-        <v>1.14</v>
-      </c>
-      <c r="AW101">
-        <v>2.05</v>
-      </c>
-      <c r="AX101">
-        <v>1.59</v>
-      </c>
-      <c r="AY101">
-        <v>7.5</v>
-      </c>
-      <c r="AZ101">
-        <v>2.81</v>
-      </c>
-      <c r="BA101">
-        <v>0</v>
-      </c>
-      <c r="BB101">
-        <v>1.43</v>
-      </c>
-      <c r="BC101">
-        <v>2.25</v>
-      </c>
-      <c r="BD101">
-        <v>2.25</v>
-      </c>
-      <c r="BE101">
-        <v>0</v>
-      </c>
-      <c r="BF101">
-        <v>2</v>
-      </c>
-      <c r="BG101">
-        <v>0</v>
-      </c>
-      <c r="BH101">
-        <v>0</v>
-      </c>
-      <c r="BI101">
-        <v>0</v>
-      </c>
-      <c r="BJ101">
-        <v>2</v>
-      </c>
       <c r="BK101">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bahrain Bahraini Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bahrain Bahraini Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK101"/>
+  <dimension ref="A1:BK106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT2" t="n">
         <v>0.38</v>
@@ -1512,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU9" t="n">
         <v>0.92</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT11" t="n">
         <v>2.13</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT14" t="n">
         <v>2.13</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT16" t="n">
         <v>2.25</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>2</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU19" t="n">
         <v>1.22</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU20" t="n">
         <v>1.39</v>
@@ -4757,10 +4757,10 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU21" t="n">
         <v>1.01</v>
@@ -5569,10 +5569,10 @@
         <v>0.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU25" t="n">
         <v>1.58</v>
@@ -5775,7 +5775,7 @@
         <v>0.44</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU26" t="n">
         <v>1.31</v>
@@ -5975,7 +5975,7 @@
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT27" t="n">
         <v>2.13</v>
@@ -6178,10 +6178,10 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU28" t="n">
         <v>0.95</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT29" t="n">
         <v>1.11</v>
@@ -6587,7 +6587,7 @@
         <v>1.44</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU30" t="n">
         <v>1.45</v>
@@ -6993,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU32" t="n">
         <v>0.47</v>
@@ -7196,7 +7196,7 @@
         <v>2</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU33" t="n">
         <v>1.38</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT34" t="n">
         <v>1.11</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT36" t="n">
         <v>1.67</v>
@@ -8008,7 +8008,7 @@
         <v>1.44</v>
       </c>
       <c r="AT37" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU37" t="n">
         <v>1.01</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT39" t="n">
         <v>1.44</v>
@@ -8617,7 +8617,7 @@
         <v>0.44</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU40" t="n">
         <v>0.97</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT41" t="n">
         <v>1.25</v>
@@ -9223,10 +9223,10 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT43" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU43" t="n">
         <v>0.95</v>
@@ -9426,10 +9426,10 @@
         <v>2.25</v>
       </c>
       <c r="AS44" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU44" t="n">
         <v>1.07</v>
@@ -9629,10 +9629,10 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU45" t="n">
         <v>1.35</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT48" t="n">
         <v>1.67</v>
@@ -10444,7 +10444,7 @@
         <v>2</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU49" t="n">
         <v>1.64</v>
@@ -10647,7 +10647,7 @@
         <v>1.33</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU50" t="n">
         <v>1.27</v>
@@ -10847,7 +10847,7 @@
         <v>1.67</v>
       </c>
       <c r="AS51" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT51" t="n">
         <v>1.44</v>
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="AT52" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU52" t="n">
         <v>1.38</v>
@@ -11459,7 +11459,7 @@
         <v>1.44</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU54" t="n">
         <v>0.93</v>
@@ -11659,7 +11659,7 @@
         <v>0.67</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT55" t="n">
         <v>0.38</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT57" t="n">
         <v>1.25</v>
@@ -12677,7 +12677,7 @@
         <v>1.71</v>
       </c>
       <c r="AT60" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU60" t="n">
         <v>1.23</v>
@@ -13080,7 +13080,7 @@
         <v>0.8</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT62" t="n">
         <v>1.25</v>
@@ -13283,7 +13283,7 @@
         <v>0.6</v>
       </c>
       <c r="AS63" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT63" t="n">
         <v>0.38</v>
@@ -13692,7 +13692,7 @@
         <v>1.33</v>
       </c>
       <c r="AT65" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU65" t="n">
         <v>1.29</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU66" t="n">
         <v>0.95</v>
@@ -14707,7 +14707,7 @@
         <v>1.71</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU70" t="n">
         <v>1.32</v>
@@ -15110,7 +15110,7 @@
         <v>2.2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT72" t="n">
         <v>2.13</v>
@@ -15313,7 +15313,7 @@
         <v>1.8</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT73" t="n">
         <v>1.44</v>
@@ -15516,10 +15516,10 @@
         <v>0.2</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU74" t="n">
         <v>1.11</v>
@@ -15719,7 +15719,7 @@
         <v>1.67</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT75" t="n">
         <v>1.11</v>
@@ -15922,10 +15922,10 @@
         <v>2.17</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU76" t="n">
         <v>1.11</v>
@@ -16125,10 +16125,10 @@
         <v>1.43</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU77" t="n">
         <v>1.63</v>
@@ -16534,7 +16534,7 @@
         <v>1.44</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU79" t="n">
         <v>0.9</v>
@@ -16737,7 +16737,7 @@
         <v>2</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU80" t="n">
         <v>1.7</v>
@@ -17143,7 +17143,7 @@
         <v>2</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU82" t="n">
         <v>1.15</v>
@@ -17343,7 +17343,7 @@
         <v>1.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT83" t="n">
         <v>1.67</v>
@@ -18158,7 +18158,7 @@
         <v>1.71</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU87" t="n">
         <v>1.45</v>
@@ -18358,10 +18358,10 @@
         <v>1.67</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT88" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU88" t="n">
         <v>1.5</v>
@@ -18564,7 +18564,7 @@
         <v>1.44</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU89" t="n">
         <v>0.96</v>
@@ -18967,7 +18967,7 @@
         <v>1.43</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT91" t="n">
         <v>1.44</v>
@@ -19376,7 +19376,7 @@
         <v>1</v>
       </c>
       <c r="AT93" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU93" t="n">
         <v>0.98</v>
@@ -19576,7 +19576,7 @@
         <v>1</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT94" t="n">
         <v>1.25</v>
@@ -19779,10 +19779,10 @@
         <v>1.63</v>
       </c>
       <c r="AS95" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU95" t="n">
         <v>0.99</v>
@@ -19982,7 +19982,7 @@
         <v>2.33</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT96" t="n">
         <v>2.25</v>
@@ -20388,7 +20388,7 @@
         <v>1.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT98" t="n">
         <v>1.67</v>
@@ -20594,7 +20594,7 @@
         <v>1.33</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU99" t="n">
         <v>1.34</v>
@@ -21052,6 +21052,1021 @@
       </c>
       <c r="BK101" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5258606</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Bahrain Bahraini Premier League</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45017.65625</v>
+      </c>
+      <c r="F102" t="n">
+        <v>18</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Al Hala</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Al-Hidd</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="n">
+        <v>2</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>3</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['30', '53']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>9</v>
+      </c>
+      <c r="S102" t="n">
+        <v>12</v>
+      </c>
+      <c r="T102" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2</v>
+      </c>
+      <c r="V102" t="n">
+        <v>4</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X102" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5258607</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Bahrain Bahraini Premier League</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45017.65625</v>
+      </c>
+      <c r="F103" t="n">
+        <v>18</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Al Ahli</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Budaiya</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>2</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>3</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['7', '52']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>9</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V103" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X103" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>5258605</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Bahrain Bahraini Premier League</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45018.65625</v>
+      </c>
+      <c r="F104" t="n">
+        <v>18</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Bahrain SC</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Manama</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>2</v>
+      </c>
+      <c r="R104" t="n">
+        <v>6</v>
+      </c>
+      <c r="S104" t="n">
+        <v>8</v>
+      </c>
+      <c r="T104" t="n">
+        <v>6</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V104" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X104" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>5258602</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Bahrain Bahraini Premier League</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45019.65625</v>
+      </c>
+      <c r="F105" t="n">
+        <v>18</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>East Riffa</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Khalidiya</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="n">
+        <v>2</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>1</v>
+      </c>
+      <c r="R105" t="n">
+        <v>7</v>
+      </c>
+      <c r="S105" t="n">
+        <v>8</v>
+      </c>
+      <c r="T105" t="n">
+        <v>5</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V105" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X105" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>5258604</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Bahrain Bahraini Premier League</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45019.65625</v>
+      </c>
+      <c r="F106" t="n">
+        <v>18</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Sitra</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Al Riffa</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>3</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>7</v>
+      </c>
+      <c r="T106" t="n">
+        <v>4</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2</v>
+      </c>
+      <c r="V106" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X106" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bahrain Bahraini Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bahrain Bahraini Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK106"/>
+  <dimension ref="A1:BK107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT8" t="n">
         <v>0.38</v>
@@ -2730,7 +2730,7 @@
         <v>1.22</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU11" t="n">
         <v>1.31</v>
@@ -3339,7 +3339,7 @@
         <v>0.67</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU14" t="n">
         <v>1.81</v>
@@ -5978,7 +5978,7 @@
         <v>1.11</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU27" t="n">
         <v>1.01</v>
@@ -6584,7 +6584,7 @@
         <v>1.33</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT30" t="n">
         <v>1.9</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT37" t="n">
         <v>1.89</v>
@@ -8211,7 +8211,7 @@
         <v>1.33</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU38" t="n">
         <v>1.56</v>
@@ -9835,7 +9835,7 @@
         <v>1.71</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU46" t="n">
         <v>1.31</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT47" t="n">
         <v>2.25</v>
@@ -11456,7 +11456,7 @@
         <v>1.4</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT54" t="n">
         <v>1.2</v>
@@ -15113,7 +15113,7 @@
         <v>1</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU72" t="n">
         <v>1.07</v>
@@ -16331,7 +16331,7 @@
         <v>2</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU78" t="n">
         <v>1.7</v>
@@ -16531,7 +16531,7 @@
         <v>2.4</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT79" t="n">
         <v>2</v>
@@ -17546,7 +17546,7 @@
         <v>1.43</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT84" t="n">
         <v>1.11</v>
@@ -18561,7 +18561,7 @@
         <v>0.17</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT89" t="n">
         <v>0.13</v>
@@ -20188,7 +20188,7 @@
         <v>0.44</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU97" t="n">
         <v>1.04</v>
@@ -20794,7 +20794,7 @@
         <v>1.63</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT100" t="n">
         <v>1.44</v>
@@ -22067,6 +22067,209 @@
       </c>
       <c r="BK106" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5258603</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Bahrain Bahraini Premier League</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45025.65625</v>
+      </c>
+      <c r="F107" t="n">
+        <v>18</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Muharraq</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>3</v>
+      </c>
+      <c r="K107" t="n">
+        <v>3</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="n">
+        <v>5</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['20', '22', '32', '63', '79']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>1</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>6</v>
+      </c>
+      <c r="T107" t="n">
+        <v>5</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V107" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X107" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
